--- a/04 - Arquivos Tratados/producao_venti_della_valle.xlsx
+++ b/04 - Arquivos Tratados/producao_venti_della_valle.xlsx
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>166199.6989820831</v>
+        <v>1103515.12722793</v>
       </c>
       <c r="D2" t="n">
-        <v>118209.8736227036</v>
+        <v>820954.9599838161</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>413238.223998577</v>
+        <v>3185805.81137508</v>
       </c>
       <c r="D3" t="n">
-        <v>147608.6026296786</v>
+        <v>1098483.717527176</v>
       </c>
     </row>
     <row r="4">
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26145.53539593743</v>
+        <v>146537.1080313372</v>
       </c>
       <c r="D4" t="n">
-        <v>51957.35565284708</v>
+        <v>328108.0750091606</v>
       </c>
     </row>
     <row r="5">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18587.86504202824</v>
+        <v>182702.0232799748</v>
       </c>
       <c r="D5" t="n">
-        <v>54495.19802041365</v>
+        <v>536074.3345553813</v>
       </c>
     </row>
     <row r="6">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87470.97033902838</v>
+        <v>759559.3289084439</v>
       </c>
       <c r="D6" t="n">
-        <v>86510.93104276904</v>
+        <v>768457.3563081915</v>
       </c>
     </row>
     <row r="7">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>133252.7883479644</v>
+        <v>1376371.364787756</v>
       </c>
       <c r="D7" t="n">
-        <v>333631.7272484404</v>
+        <v>3459255.380649932</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37105.04927047943</v>
+        <v>318826.6652743648</v>
       </c>
       <c r="D8" t="n">
-        <v>119379.9418887256</v>
+        <v>1015971.332631644</v>
       </c>
     </row>
     <row r="9">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18489.37219545839</v>
+        <v>176550.8080264153</v>
       </c>
       <c r="D9" t="n">
-        <v>43698.62830636075</v>
+        <v>394170.0908644237</v>
       </c>
     </row>
     <row r="10">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>37181.74124742374</v>
+        <v>265916.8117669364</v>
       </c>
       <c r="D10" t="n">
-        <v>89753.00547583653</v>
+        <v>643809.1039623884</v>
       </c>
     </row>
     <row r="11">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>43536.96549451946</v>
+        <v>354830.7147034308</v>
       </c>
       <c r="D11" t="n">
-        <v>114146.5802128759</v>
+        <v>836683.6774512066</v>
       </c>
     </row>
     <row r="12">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>51791.53482852058</v>
+        <v>527621.1176306802</v>
       </c>
       <c r="D12" t="n">
-        <v>101658.0069263652</v>
+        <v>1029779.015772916</v>
       </c>
     </row>
     <row r="13">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>41261.37390041807</v>
+        <v>421636.0962098938</v>
       </c>
       <c r="D13" t="n">
-        <v>78650.47407617042</v>
+        <v>795488.0089966424</v>
       </c>
     </row>
     <row r="14">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>83722.9696024523</v>
+        <v>699155.0463367348</v>
       </c>
       <c r="D14" t="n">
-        <v>114873.7140225725</v>
+        <v>941268.3831775591</v>
       </c>
     </row>
     <row r="15">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>148292.2150937835</v>
+        <v>1166422.271519344</v>
       </c>
       <c r="D15" t="n">
-        <v>179836.6994679987</v>
+        <v>1408437.141862282</v>
       </c>
     </row>
     <row r="16">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>123020.1638113592</v>
+        <v>943610.3184687824</v>
       </c>
       <c r="D16" t="n">
-        <v>192300.6818998283</v>
+        <v>1456137.13937508</v>
       </c>
     </row>
     <row r="17">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103524.3136697574</v>
+        <v>699948.3115705579</v>
       </c>
       <c r="D17" t="n">
-        <v>165609.141715778</v>
+        <v>1126346.887097418</v>
       </c>
     </row>
     <row r="18">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>117960.0863924791</v>
+        <v>841271.1536739899</v>
       </c>
       <c r="D18" t="n">
-        <v>83899.3511443204</v>
+        <v>625859.7723394119</v>
       </c>
     </row>
     <row r="19">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>316721.0674192794</v>
+        <v>2526349.796201974</v>
       </c>
       <c r="D19" t="n">
-        <v>113132.695549725</v>
+        <v>871099.5836585964</v>
       </c>
     </row>
     <row r="20">
@@ -757,10 +757,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19454.52760014747</v>
+        <v>107097.754804112</v>
       </c>
       <c r="D20" t="n">
-        <v>38660.74242778954</v>
+        <v>239800.2706527114</v>
       </c>
     </row>
     <row r="21">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14015.57427534544</v>
+        <v>135044.913162255</v>
       </c>
       <c r="D21" t="n">
-        <v>41090.3292969801</v>
+        <v>396241.4354197243</v>
       </c>
     </row>
     <row r="22">
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>63585.70834767618</v>
+        <v>548568.2270352725</v>
       </c>
       <c r="D22" t="n">
-        <v>62887.82219804675</v>
+        <v>554994.5520490216</v>
       </c>
     </row>
     <row r="23">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>104497.8770107957</v>
+        <v>1000180.913445473</v>
       </c>
       <c r="D23" t="n">
-        <v>261636.6053809443</v>
+        <v>2513770.116826827</v>
       </c>
     </row>
     <row r="24">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27664.07126768285</v>
+        <v>234733.9819301826</v>
       </c>
       <c r="D24" t="n">
-        <v>89005.00835526505</v>
+        <v>748002.0412668881</v>
       </c>
     </row>
     <row r="25">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12703.51022990198</v>
+        <v>131232.2560916873</v>
       </c>
       <c r="D25" t="n">
-        <v>30024.05738032011</v>
+        <v>292991.1841596571</v>
       </c>
     </row>
     <row r="26">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>28862.86069226633</v>
+        <v>197031.1494814329</v>
       </c>
       <c r="D26" t="n">
-        <v>69672.05964139134</v>
+        <v>477030.5681594106</v>
       </c>
     </row>
     <row r="27">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>33682.81427890893</v>
+        <v>268167.2848556173</v>
       </c>
       <c r="D27" t="n">
-        <v>88310.65781024334</v>
+        <v>632333.0556449534</v>
       </c>
     </row>
     <row r="28">
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>40255.0574953992</v>
+        <v>392442.4201194746</v>
       </c>
       <c r="D28" t="n">
-        <v>79013.85674778266</v>
+        <v>765945.4021721937</v>
       </c>
     </row>
     <row r="29">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>31508.63299066078</v>
+        <v>326390.28850899</v>
       </c>
       <c r="D29" t="n">
-        <v>60060.26188532768</v>
+        <v>615790.638172984</v>
       </c>
     </row>
     <row r="30">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>64870.56388804544</v>
+        <v>500467.0390108019</v>
       </c>
       <c r="D30" t="n">
-        <v>89006.90742269224</v>
+        <v>673775.8714774034</v>
       </c>
     </row>
     <row r="31">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>104717.0265641853</v>
+        <v>878806.288502273</v>
       </c>
       <c r="D31" t="n">
-        <v>126992.2660707176</v>
+        <v>1061145.219403688</v>
       </c>
     </row>
     <row r="32">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>88495.34943382819</v>
+        <v>734660.7919357375</v>
       </c>
       <c r="D32" t="n">
-        <v>138332.7376086406</v>
+        <v>1133695.597687264</v>
       </c>
     </row>
     <row r="33">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>73289.94836466564</v>
+        <v>530474.9818006819</v>
       </c>
       <c r="D33" t="n">
-        <v>117242.8487068704</v>
+        <v>853632.8105336492</v>
       </c>
     </row>
     <row r="34">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>79635.15414572893</v>
+        <v>534175.091450942</v>
       </c>
       <c r="D34" t="n">
-        <v>56640.66520665574</v>
+        <v>397397.0813867066</v>
       </c>
     </row>
     <row r="35">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>199544.7604051315</v>
+        <v>1655799.171161595</v>
       </c>
       <c r="D35" t="n">
-        <v>71277.34448296564</v>
+        <v>570928.843974622</v>
       </c>
     </row>
     <row r="36">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13148.68345351397</v>
+        <v>79223.67810683858</v>
       </c>
       <c r="D36" t="n">
-        <v>26129.5403676103</v>
+        <v>177388.0272921814</v>
       </c>
     </row>
     <row r="37">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9233.732280587097</v>
+        <v>93752.01835848503</v>
       </c>
       <c r="D37" t="n">
-        <v>27071.10622765598</v>
+        <v>275082.0705347784</v>
       </c>
     </row>
     <row r="38">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>42415.5568866993</v>
+        <v>354204.1804404474</v>
       </c>
       <c r="D38" t="n">
-        <v>41950.02413650656</v>
+        <v>358353.5844207705</v>
       </c>
     </row>
     <row r="39">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>67310.15908014424</v>
+        <v>659249.7471223328</v>
       </c>
       <c r="D39" t="n">
-        <v>168527.8403078075</v>
+        <v>1656902.557891201</v>
       </c>
     </row>
     <row r="40">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19071.07388486828</v>
+        <v>152617.1643320676</v>
       </c>
       <c r="D40" t="n">
-        <v>61358.32553502365</v>
+        <v>486329.0330358086</v>
       </c>
     </row>
     <row r="41">
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9062.562849419111</v>
+        <v>87585.94910973484</v>
       </c>
       <c r="D41" t="n">
-        <v>21418.87573430295</v>
+        <v>195545.7576487873</v>
       </c>
     </row>
     <row r="42">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19796.10464641559</v>
+        <v>136204.3883920124</v>
       </c>
       <c r="D42" t="n">
-        <v>47785.81715435611</v>
+        <v>329763.3747326304</v>
       </c>
     </row>
     <row r="43">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>24042.14398109588</v>
+        <v>180748.8439841527</v>
       </c>
       <c r="D43" t="n">
-        <v>63034.44636657405</v>
+        <v>426202.1330541063</v>
       </c>
     </row>
     <row r="44">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>28100.78275778794</v>
+        <v>247760.3752203938</v>
       </c>
       <c r="D44" t="n">
-        <v>55157.07494836354</v>
+        <v>483563.7293816111</v>
       </c>
     </row>
     <row r="45">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>21820.04114774027</v>
+        <v>201877.2928687448</v>
       </c>
       <c r="D45" t="n">
-        <v>41592.32760336974</v>
+        <v>380875.7533080053</v>
       </c>
     </row>
     <row r="46">
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>41015.7854875702</v>
+        <v>331735.9606392913</v>
       </c>
       <c r="D46" t="n">
-        <v>56276.4989689557</v>
+        <v>446614.1994524195</v>
       </c>
     </row>
     <row r="47">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>71978.74307254603</v>
+        <v>601564.6316226191</v>
       </c>
       <c r="D47" t="n">
-        <v>87289.9469323821</v>
+        <v>726380.1378761205</v>
       </c>
     </row>
     <row r="48">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>56989.29199080988</v>
+        <v>448627.2001114892</v>
       </c>
       <c r="D48" t="n">
-        <v>89083.60525048529</v>
+        <v>692301.3822869798</v>
       </c>
     </row>
     <row r="49">
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>52559.63214015296</v>
+        <v>354729.2389932371</v>
       </c>
       <c r="D49" t="n">
-        <v>84080.30209593711</v>
+        <v>570825.2559477637</v>
       </c>
     </row>
     <row r="50">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35934.44007970888</v>
+        <v>306614.3044471383</v>
       </c>
       <c r="D50" t="n">
-        <v>25558.44352632027</v>
+        <v>228104.2894900654</v>
       </c>
     </row>
     <row r="51">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>91929.00217701224</v>
+        <v>934884.1723613519</v>
       </c>
       <c r="D51" t="n">
-        <v>32837.01933763076</v>
+        <v>322353.3077396057</v>
       </c>
     </row>
     <row r="52">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7513.225450401138</v>
+        <v>35790.40195771217</v>
       </c>
       <c r="D52" t="n">
-        <v>14930.5539517531</v>
+        <v>80137.51634594658</v>
       </c>
     </row>
     <row r="53">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4505.752602039225</v>
+        <v>39623.59419928519</v>
       </c>
       <c r="D53" t="n">
-        <v>13209.79465495027</v>
+        <v>116261.3938901159</v>
       </c>
     </row>
     <row r="54">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19998.72662659619</v>
+        <v>163133.5500158363</v>
       </c>
       <c r="D54" t="n">
-        <v>19779.23022267767</v>
+        <v>165044.6144220165</v>
       </c>
     </row>
     <row r="55">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>37545.11976109567</v>
+        <v>318259.0906444377</v>
       </c>
       <c r="D55" t="n">
-        <v>94003.6100628078</v>
+        <v>799885.481432038</v>
       </c>
     </row>
     <row r="56">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10027.39797696943</v>
+        <v>81667.92166338499</v>
       </c>
       <c r="D56" t="n">
-        <v>32261.65202098567</v>
+        <v>260242.5588656599</v>
       </c>
     </row>
     <row r="57">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4322.749925220517</v>
+        <v>47866.19237216262</v>
       </c>
       <c r="D57" t="n">
-        <v>10216.58497901621</v>
+        <v>106866.8085271318</v>
       </c>
     </row>
     <row r="58">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9517.768613894323</v>
+        <v>74782.38875961836</v>
       </c>
       <c r="D58" t="n">
-        <v>22974.941728416</v>
+        <v>181055.0539455709</v>
       </c>
     </row>
     <row r="59">
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>11256.48574547572</v>
+        <v>82884.08485679912</v>
       </c>
       <c r="D59" t="n">
-        <v>29512.60701030674</v>
+        <v>195439.0024497336</v>
       </c>
     </row>
     <row r="60">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14609.93091829228</v>
+        <v>142367.1622294516</v>
       </c>
       <c r="D60" t="n">
-        <v>28676.81877748859</v>
+        <v>277863.6246732796</v>
       </c>
     </row>
     <row r="61">
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10073.66456118085</v>
+        <v>117671.7864123711</v>
       </c>
       <c r="D61" t="n">
-        <v>19201.94163513212</v>
+        <v>222007.7833223682</v>
       </c>
     </row>
     <row r="62">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>18779.99602193208</v>
+        <v>177295.1728131719</v>
       </c>
       <c r="D62" t="n">
-        <v>25767.45548577967</v>
+        <v>238691.4626926179</v>
       </c>
     </row>
     <row r="63">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>38718.10726948514</v>
+        <v>277618.4105557647</v>
       </c>
       <c r="D63" t="n">
-        <v>46954.16152890163</v>
+        <v>335220.0058579099</v>
       </c>
     </row>
     <row r="64">
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>27644.06176400267</v>
+        <v>244806.3905839906</v>
       </c>
       <c r="D64" t="n">
-        <v>43212.20004104583</v>
+        <v>377774.2467506768</v>
       </c>
     </row>
     <row r="65">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>26943.24172542403</v>
+        <v>195165.4576355232</v>
       </c>
       <c r="D65" t="n">
-        <v>43101.44138141446</v>
+        <v>314057.484021169</v>
       </c>
     </row>
   </sheetData>
